--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N2">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O2">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P2">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q2">
-        <v>16.21988085280537</v>
+        <v>17.41054769773275</v>
       </c>
       <c r="R2">
-        <v>16.21988085280537</v>
+        <v>69.642190790931</v>
       </c>
       <c r="S2">
-        <v>0.0380539596353574</v>
+        <v>0.02462216251745254</v>
       </c>
       <c r="T2">
-        <v>0.0380539596353574</v>
+        <v>0.01524790702690472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N3">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O3">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P3">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q3">
-        <v>12.89151811183238</v>
+        <v>8.646388076111499</v>
       </c>
       <c r="R3">
-        <v>12.89151811183238</v>
+        <v>51.878328456669</v>
       </c>
       <c r="S3">
-        <v>0.03024518578885239</v>
+        <v>0.01222780443757692</v>
       </c>
       <c r="T3">
-        <v>0.03024518578885239</v>
+        <v>0.01135857330211279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N4">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O4">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P4">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q4">
-        <v>135.7960514281908</v>
+        <v>13.313975795442</v>
       </c>
       <c r="R4">
-        <v>135.7960514281908</v>
+        <v>53.255903181768</v>
       </c>
       <c r="S4">
-        <v>0.3185952786327349</v>
+        <v>0.01882875148330295</v>
       </c>
       <c r="T4">
-        <v>0.3185952786327349</v>
+        <v>0.01166018833019228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H5">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I5">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J5">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N5">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O5">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P5">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q5">
-        <v>107.9303400800911</v>
+        <v>149.7611800243533</v>
       </c>
       <c r="R5">
-        <v>107.9303400800911</v>
+        <v>898.56708014612</v>
       </c>
       <c r="S5">
-        <v>0.2532186791081028</v>
+        <v>0.2117936883654317</v>
       </c>
       <c r="T5">
-        <v>0.2532186791081028</v>
+        <v>0.1967380281966876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H6">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I6">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J6">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N6">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O6">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P6">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q6">
-        <v>51.19694705533583</v>
+        <v>74.37406931176444</v>
       </c>
       <c r="R6">
-        <v>51.19694705533583</v>
+        <v>669.36662380588</v>
       </c>
       <c r="S6">
-        <v>0.12011472675894</v>
+        <v>0.1051805177798637</v>
       </c>
       <c r="T6">
-        <v>0.12011472675894</v>
+        <v>0.1465554131883266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H7">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J7">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N7">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O7">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P7">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q7">
-        <v>40.69119719336479</v>
+        <v>114.52349234256</v>
       </c>
       <c r="R7">
-        <v>40.69119719336479</v>
+        <v>687.14095405536</v>
       </c>
       <c r="S7">
-        <v>0.09546686498889116</v>
+        <v>0.1619602145481011</v>
       </c>
       <c r="T7">
-        <v>0.09546686498889116</v>
+        <v>0.1504470388254808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H8">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I8">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J8">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N8">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O8">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P8">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q8">
-        <v>16.15890681831191</v>
+        <v>104.2149480060517</v>
       </c>
       <c r="R8">
-        <v>16.15890681831191</v>
+        <v>625.2896880363101</v>
       </c>
       <c r="S8">
-        <v>0.03791090658407571</v>
+        <v>0.1473817728828268</v>
       </c>
       <c r="T8">
-        <v>0.03791090658407571</v>
+        <v>0.136904926737335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H9">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I9">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J9">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N9">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O9">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P9">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q9">
-        <v>12.84305611157742</v>
+        <v>51.75499929329889</v>
       </c>
       <c r="R9">
-        <v>12.84305611157742</v>
+        <v>465.79499363969</v>
       </c>
       <c r="S9">
-        <v>0.03013148760461253</v>
+        <v>0.07319241334700757</v>
       </c>
       <c r="T9">
-        <v>0.03013148760461253</v>
+        <v>0.1019841374309632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.4013115348323</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H10">
-        <v>22.4013115348323</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I10">
-        <v>0.03872592306179204</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J10">
-        <v>0.03872592306179204</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N10">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O10">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P10">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q10">
-        <v>9.19674549477633</v>
+        <v>79.69394871228</v>
       </c>
       <c r="R10">
-        <v>9.19674549477633</v>
+        <v>478.1636922736801</v>
       </c>
       <c r="S10">
-        <v>0.02157676650099082</v>
+        <v>0.1127039419389899</v>
       </c>
       <c r="T10">
-        <v>0.02157676650099082</v>
+        <v>0.1046922194811253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H11">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I11">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J11">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N11">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O11">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P11">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q11">
-        <v>7.30954883033656</v>
+        <v>20.830831197187</v>
       </c>
       <c r="R11">
-        <v>7.30954883033656</v>
+        <v>124.984987183122</v>
       </c>
       <c r="S11">
-        <v>0.01714915656080121</v>
+        <v>0.02945916004569748</v>
       </c>
       <c r="T11">
-        <v>0.01714915656080121</v>
+        <v>0.02736501311465486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H12">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I12">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J12">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N12">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O12">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P12">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q12">
-        <v>8.914393679480884</v>
+        <v>10.34496177867533</v>
       </c>
       <c r="R12">
-        <v>8.914393679480884</v>
+        <v>93.104656008078</v>
       </c>
       <c r="S12">
-        <v>0.02091433225256881</v>
+        <v>0.01462994355913046</v>
       </c>
       <c r="T12">
-        <v>0.02091433225256881</v>
+        <v>0.02038492934326228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H13">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I13">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J13">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N13">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O13">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P13">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q13">
-        <v>7.085136359380559</v>
+        <v>15.929492120136</v>
       </c>
       <c r="R13">
-        <v>7.085136359380559</v>
+        <v>95.57695272081601</v>
       </c>
       <c r="S13">
-        <v>0.01662265558407219</v>
+        <v>0.02252763960168491</v>
       </c>
       <c r="T13">
-        <v>0.01662265558407219</v>
+        <v>0.02092622981055976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.832077</v>
+      </c>
+      <c r="H14">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I14">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J14">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4274105</v>
+      </c>
+      <c r="N14">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P14">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q14">
+        <v>9.758669446608501</v>
+      </c>
+      <c r="R14">
+        <v>58.552016679651</v>
+      </c>
+      <c r="S14">
+        <v>0.01380080335438172</v>
+      </c>
+      <c r="T14">
+        <v>0.01281975331949717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.832077</v>
+      </c>
+      <c r="H15">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I15">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J15">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.636779</v>
+      </c>
+      <c r="O15">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P15">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q15">
+        <v>4.846329053327666</v>
+      </c>
+      <c r="R15">
+        <v>43.616961479949</v>
+      </c>
+      <c r="S15">
+        <v>0.006853724744088597</v>
+      </c>
+      <c r="T15">
+        <v>0.009549776735756476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.832077</v>
+      </c>
+      <c r="H16">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I16">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J16">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.326844</v>
+      </c>
+      <c r="N16">
+        <v>0.653688</v>
+      </c>
+      <c r="O16">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P16">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q16">
+        <v>7.462527374988</v>
+      </c>
+      <c r="R16">
+        <v>44.775164249928</v>
+      </c>
+      <c r="S16">
+        <v>0.01055357734908136</v>
+      </c>
+      <c r="T16">
+        <v>0.009803361063796357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.082339</v>
+      </c>
+      <c r="H17">
+        <v>50.164678</v>
+      </c>
+      <c r="I17">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J17">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4274105</v>
+      </c>
+      <c r="N17">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P17">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q17">
+        <v>10.7204550531595</v>
+      </c>
+      <c r="R17">
+        <v>42.881820212638</v>
+      </c>
+      <c r="S17">
+        <v>0.0151609697272368</v>
+      </c>
+      <c r="T17">
+        <v>0.009388820201099921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>25.082339</v>
+      </c>
+      <c r="H18">
+        <v>50.164678</v>
+      </c>
+      <c r="I18">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J18">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.636779</v>
+      </c>
+      <c r="O18">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P18">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q18">
+        <v>5.323968915360333</v>
+      </c>
+      <c r="R18">
+        <v>31.943813492162</v>
+      </c>
+      <c r="S18">
+        <v>0.007529207590002368</v>
+      </c>
+      <c r="T18">
+        <v>0.006993982996248579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>25.082339</v>
+      </c>
+      <c r="H19">
+        <v>50.164678</v>
+      </c>
+      <c r="I19">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J19">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.326844</v>
+      </c>
+      <c r="N19">
+        <v>0.653688</v>
+      </c>
+      <c r="O19">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P19">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q19">
+        <v>8.198012008116001</v>
+      </c>
+      <c r="R19">
+        <v>32.792048032464</v>
+      </c>
+      <c r="S19">
+        <v>0.01159370672814305</v>
+      </c>
+      <c r="T19">
+        <v>0.007179700895996478</v>
       </c>
     </row>
   </sheetData>
